--- a/www/物料库存更新模板.xlsx
+++ b/www/物料库存更新模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\棱星数据\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12696C98-33E4-40BC-897E-D0EB8953AB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD911F96-7DFC-4C7F-8346-38509433C9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>物料编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,26 @@
   </si>
   <si>
     <t>01.01.01.01.0001</t>
+  </si>
+  <si>
+    <t>启用最小库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用最大库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用安全库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -83,8 +103,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -365,46 +391,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
